--- a/biology/Zoologie/Erichthodes_narapa/Erichthodes_narapa.xlsx
+++ b/biology/Zoologie/Erichthodes_narapa/Erichthodes_narapa.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F7"/>
+  <dimension ref="A1:H8"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -480,7 +490,9 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
         <is>
           <t xml:space="preserve">Erichthodes narapa est une espèce de papillons de la famille des Nymphalidae, de la sous-famille des Satyrinae et du genre Erichthodes.
 </t>
@@ -511,9 +523,11 @@
           <t>Systématique</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
-        <is>
-          <t xml:space="preserve">L'espèce Erichthodes narapa a été décrite par William Schaus en 1902 sous le nom initial d’Euptychia narapa[3] sur la base d'un spécimen mâle capturé dans les environs de Castro au Paraná (Brésil).
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
+        <is>
+          <t xml:space="preserve">L'espèce Erichthodes narapa a été décrite par William Schaus en 1902 sous le nom initial d’Euptychia narapa sur la base d'un spécimen mâle capturé dans les environs de Castro au Paraná (Brésil).
 </t>
         </is>
       </c>
@@ -542,9 +556,11 @@
           <t>Description</t>
         </is>
       </c>
-      <c r="F4" t="inlineStr">
-        <is>
-          <t xml:space="preserve">L'holotype de Erichthodes narapa, un mâle, présente une envergure de 31 mm[3]. Ses ailes sont uniformément brunes avec une ligne terminale sombre. Le dessous est également brun.
+      <c r="F4" t="inlineStr"/>
+      <c r="G4" t="inlineStr"/>
+      <c r="H4" t="inlineStr">
+        <is>
+          <t xml:space="preserve">L'holotype de Erichthodes narapa, un mâle, présente une envergure de 31 mm. Ses ailes sont uniformément brunes avec une ligne terminale sombre. Le dessous est également brun.
 </t>
         </is>
       </c>
@@ -574,6 +590,8 @@
         </is>
       </c>
       <c r="F5" t="inlineStr"/>
+      <c r="G5" t="inlineStr"/>
+      <c r="H5" t="inlineStr"/>
     </row>
     <row r="6">
       <c r="A6" s="1" t="n">
@@ -599,12 +617,11 @@
           <t>Écologie et distribution</t>
         </is>
       </c>
-      <c r="F6" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Erichthodes narapa est présent au Brésil et en Argentine[2].
-Biotope
-Protection
-Pas de statut de protection particulier
+      <c r="F6" t="inlineStr"/>
+      <c r="G6" t="inlineStr"/>
+      <c r="H6" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Erichthodes narapa est présent au Brésil et en Argentine.
 </t>
         </is>
       </c>
@@ -630,10 +647,49 @@
       </c>
       <c r="E7" t="inlineStr">
         <is>
+          <t>Écologie et distribution</t>
+        </is>
+      </c>
+      <c r="F7" t="inlineStr">
+        <is>
+          <t>Protection</t>
+        </is>
+      </c>
+      <c r="G7" t="inlineStr"/>
+      <c r="H7" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Pas de statut de protection particulier
+</t>
+        </is>
+      </c>
+    </row>
+    <row r="8">
+      <c r="A8" s="1" t="n">
+        <v>6</v>
+      </c>
+      <c r="B8" t="inlineStr">
+        <is>
+          <t>Erichthodes_narapa</t>
+        </is>
+      </c>
+      <c r="C8" t="inlineStr">
+        <is>
+          <t>Portail:Zoologie/Articles liés</t>
+        </is>
+      </c>
+      <c r="D8" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/Erichthodes_narapa</t>
+        </is>
+      </c>
+      <c r="E8" t="inlineStr">
+        <is>
           <t>Publication originale</t>
         </is>
       </c>
-      <c r="F7" t="inlineStr">
+      <c r="F8" t="inlineStr"/>
+      <c r="G8" t="inlineStr"/>
+      <c r="H8" t="inlineStr">
         <is>
           <t>(en) William Schaus, « Descriptions of new American butterflies », Proceedings of the United States National Museum, Washington, Inconnu, vol. 24, no 1262,‎ 1902, p. 383–460 (ISSN 0096-3801 et 2377-6560, OCLC 1259735, DOI 10.5479/SI.00963801.1262.383, lire en ligne)</t>
         </is>
